--- a/Users/VinhHNQ/MockProjectInterface/MockProjectInterface/bin/Resources/ImportData.xlsx
+++ b/Users/VinhHNQ/MockProjectInterface/MockProjectInterface/bin/Resources/ImportData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CongViec\FPT_Internship_2018\MockProject\WAD\Users\VinhHNQ\MockProjectInterface\MockProjectInterface\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CongViec\FPT_Internship_2018\MockProject\WAD\Users\VinhHNQ\MockProjectInterface\MockProjectInterface\bin\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D641162C-1703-4BB9-8658-1F8D191FEB37}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378F2950-46D9-4D2F-B6EA-E83F93638F0A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{56A6FD76-0411-41DE-9CCD-042A295DD6F4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -45,7 +45,7 @@
     <t>WC1</t>
   </si>
   <si>
-    <t>VinhHNQ</t>
+    <t>AnLPH</t>
   </si>
   <si>
     <t>Ha Long Bay</t>
@@ -54,13 +54,22 @@
     <t>FT1</t>
   </si>
   <si>
+    <t>WC2</t>
+  </si>
+  <si>
+    <t>ThanhLC</t>
+  </si>
+  <si>
+    <t>Harvard</t>
+  </si>
+  <si>
     <t>WC3</t>
   </si>
   <si>
-    <t>KhueMH</t>
-  </si>
-  <si>
-    <t>Boston</t>
+    <t>KhueHM</t>
+  </si>
+  <si>
+    <t>FA</t>
   </si>
 </sst>
 </file>
@@ -413,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5CF3195-E589-4CAE-8B93-E28CCCE5FA9D}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,15 +464,32 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="0">
+        <v>1</v>
+      </c>
+    </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>8</v>
@@ -472,6 +498,7 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
